--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4018.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4018.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.732776749987272</v>
+        <v>4.729336738586426</v>
       </c>
       <c r="B1">
-        <v>2.579860655259921</v>
+        <v>5.812500953674316</v>
       </c>
       <c r="C1">
-        <v>3.113441255051923</v>
+        <v>5.600942134857178</v>
       </c>
       <c r="D1">
-        <v>3.42773486586252</v>
+        <v>9.303844451904297</v>
       </c>
       <c r="E1">
-        <v>1.980125231555181</v>
+        <v>7.044075012207031</v>
       </c>
     </row>
   </sheetData>
